--- a/로스트아크/데이터테이블/String_Table(수정필요-전체).xlsx
+++ b/로스트아크/데이터테이블/String_Table(수정필요-전체).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40405C8B-D1EE-4AF2-AE15-F14612D79C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB69BE5-D924-4A9D-AACB-B984B5AE7A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7152" yWindow="3996" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="51">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,15 +172,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>마우스 지점에 공격을 가한다. 도약하여 전방을 바라보며 후방으로 {#ffff99}[movd_dis_f1]m 가량 공중으로 점프한다. 이후 창에 기를 집중하고 선택한 지점에 창을 던진다. 창이 지점에 떨어지며 {#ffbb00}[dmg_f1]의 피해를 주고 서서히 폭발하여 {#00ccff}[dmg_f2], {#00ccff}[dmg_f2], {#00ccff}[dmg_f3], {#00ccff}[dmg_f3], {#00ccff}[dmg_f4]의 피해를 주고 마지막 {#00ccff}[dmg_f4]의 피해를 주며 날려버린다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>String Table Schema</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>String Table의 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력을 [f1]만큼 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력을 [f1]% 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신의 기본 공격력의 n%에 해당하는 만큼 파티원의 공격력을 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력을 [f1]만큼 감소시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력을 [f1]% 감소시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신의 최대 체력의 n%에 해당하는 보호막을 n초간 부여한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬의 재사용 대기 시간을 n초 감소시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬의 재사용 대기 시간을 n% 감소시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬에 [f1]속성을 부여한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[damage]의 피해를 [hit_count]번 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마우스 지점에 공격을 가한다. 도약하여 전방을 바라보며 후방으로 {#ffff99}[move_dis_f1]m 가량 공중으로 점프한다. 이후 창에 기를 집중하고 선택한 지점에 창을 던진다. 창이 지점에 떨어지며 {#ffbb00}[dmg_f1]의 피해를 주고 서서히 폭발하여 {#00ccff}[dmg_f2], {#00ccff}[dmg_f2], {#00ccff}[dmg_f3], {#00ccff}[dmg_f3], {#00ccff}[dmg_f4]의 피해를 주고 마지막 {#00ccff}[dmg_f4]의 피해를 주며 날려버린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[damage]의 고정 피해를 [hit_count]번 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[param_type_1]의 [f2]%에 비례한 피해를 [hit_count]번 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1초 마다 [dmg]의 화속성 마법 피해를 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공포에 걸려 행동 불가 상태가 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFFECT_DESC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,7 +596,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -635,6 +695,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -967,7 +1030,7 @@
     <row r="1" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="32"/>
@@ -1014,7 +1077,7 @@
         <v>23</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="6"/>
@@ -1064,15 +1127,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC540C7E-1D9A-4204-BA37-262FBD0C3DDD}">
-  <dimension ref="A1:AA32"/>
+  <dimension ref="A1:AA57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.8984375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="13.3984375" style="8" customWidth="1"/>
     <col min="2" max="2" width="15.69921875" style="5" customWidth="1"/>
     <col min="3" max="3" width="69.09765625" style="29" customWidth="1"/>
     <col min="4" max="4" width="15.69921875" style="6" customWidth="1"/>
@@ -1485,7 +1548,7 @@
         <v>31</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="62.4" x14ac:dyDescent="0.4">
@@ -1601,6 +1664,217 @@
       </c>
       <c r="B32" s="5" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35" s="8">
+        <v>500000</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36" s="8">
+        <v>500001</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37" s="8">
+        <v>500002</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38" s="8">
+        <v>500003</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="33"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C39" s="33"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A40" s="8">
+        <v>501000</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A41" s="8">
+        <v>501001</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A42" s="8">
+        <v>501002</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A43" s="8">
+        <v>501003</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A44" s="8">
+        <v>501004</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C45" s="33"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A46" s="8">
+        <v>502000</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A47" s="8">
+        <v>502001</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A49" s="8">
+        <v>503000</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A50" s="8">
+        <v>503001</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C51" s="6"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A52" s="8">
+        <v>504000</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A53" s="8">
+        <v>504001</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C54" s="6"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A55" s="8">
+        <v>505000</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A56" s="8">
+        <v>505001</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A57" s="8">
+        <v>505002</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
